--- a/WeiboQuery_3/config/actions.xlsx
+++ b/WeiboQuery_3/config/actions.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="12795" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -739,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1145,6 +1146,7 @@
         <v>92</v>
       </c>
     </row>
+    <row r="24" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WeiboQuery_3/config/actions.xlsx
+++ b/WeiboQuery_3/config/actions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>ActionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,6 +388,22 @@
   </si>
   <si>
     <t>{"code":3022,"res":true,"pld":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendWeibo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送微博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3023,"prm":{"uid":"uid","content":"content"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3023,"res":true,"pld":{}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,7 +1162,23 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>3023</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WeiboQuery_3/config/actions.xlsx
+++ b/WeiboQuery_3/config/actions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="12795" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="12285" windowHeight="5595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>ActionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,6 +404,22 @@
   </si>
   <si>
     <t>{"code":3023,"res":true,"pld":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAnnotationUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取需要@的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:2034,prm:{nickName:"我们",tag:"漂亮,吃货",school:"大学",company:"微软",prov:"四川",city:"成都",age:"15~25",sex:"男",info:"好好生活",fol:"50+",fans:"100~200",count:1000}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{cod:2034,res:true,pld:{list:["微软","腾讯","华为"],count:3}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +440,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -444,10 +468,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,9 +480,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -756,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1179,10 +1208,30 @@
         <v>96</v>
       </c>
     </row>
+    <row r="25" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>3024</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/WeiboQuery_3/config/actions.xlsx
+++ b/WeiboQuery_3/config/actions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="12285" windowHeight="5595"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="12795" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>ActionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,11 +415,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{cod:2034,prm:{nickName:"我们",tag:"漂亮,吃货",school:"大学",company:"微软",prov:"四川",city:"成都",age:"15~25",sex:"男",info:"好好生活",fol:"50+",fans:"100~200",count:1000}} </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{cod:2034,res:true,pld:{list:["微软","腾讯","华为"],count:3}}</t>
+    <t>AddGroupUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3024,prm:{nickName:"我们",tag:"漂亮,吃货",school:"大学",company:"微软",prov:"四川",city:"成都",age:"15~25",sex:"男",info:"好好生活",fol:"50+",fans:"100~200",count:1000}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{cod:3024,res:true,pld:{list:["微软","腾讯","华为"],count:3}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3025,"prm":{"gid":"gid","uid":"uid","email":"email","password":"password"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3025,"res":true,"pld":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向分组中添加用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForwardMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3026,"prm":{"uid":"uid","mid":"mid","content":"转发理由"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3026,"res":true,"pld":{}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1219,10 +1251,44 @@
         <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>3025</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>100</v>
+      <c r="C26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>3026</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/WeiboQuery_3/config/actions.xlsx
+++ b/WeiboQuery_3/config/actions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="12795" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="19140" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>ActionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,6 +452,22 @@
   </si>
   <si>
     <t>{"code":3026,"res":true,"pld":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注别人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3027,"prm":{"uid":"uid"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3027,"res":true,"pld":{}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,6 +530,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1289,6 +1308,23 @@
       </c>
       <c r="E27" s="2" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
+        <v>3027</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/WeiboQuery_3/config/actions.xlsx
+++ b/WeiboQuery_3/config/actions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="19140" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="12795" windowHeight="5265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -836,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1327,6 +1327,7 @@
         <v>112</v>
       </c>
     </row>
+    <row r="29" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/WeiboQuery_3/config/actions.xlsx
+++ b/WeiboQuery_3/config/actions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="12795" windowHeight="5265"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="12795" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>ActionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,6 +468,22 @@
   </si>
   <si>
     <t>{"code":3027,"res":true,"pld":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchWeiboByUid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据UID搜索微博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3028,"prm":{"uid":"uid","count":"count"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3028,"res":true,"pld":{"list":["mid":"mid","time":"time","content":"content"]}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -1323,11 +1339,27 @@
       <c r="D28" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>3028</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/WeiboQuery_3/config/actions.xlsx
+++ b/WeiboQuery_3/config/actions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="12795" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="12795" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>ActionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,6 +484,38 @@
   </si>
   <si>
     <t>{"code":3028,"res":true,"pld":{"list":["mid":"mid","time":"time","content":"content"]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckUid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据UID检查用户是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3029,"prm":{"uid":"uid"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3029,"res":true,"pld":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetLocalUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据条件获取本地库中的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3030,prm:{nickName:"我们",tag:"漂亮,吃货",fol:"50+",fans:"100~200",count:1000}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3030,"res":true,"pld":{"list":[{"uid":"uid","nck":"nck"}]}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1358,6 +1390,40 @@
       </c>
       <c r="E29" s="2" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
+        <v>3029</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
+        <v>3030</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/WeiboQuery_3/config/actions.xlsx
+++ b/WeiboQuery_3/config/actions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="12795" windowHeight="4530"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="13545" windowHeight="3630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>ActionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,6 +516,70 @@
   </si>
   <si>
     <t>{"code":3030,"res":true,"pld":{"list":[{"uid":"uid","nck":"nck"}]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据最后的mid来获取回复信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3031,prm:{"uid":"uid","mid":"mid"}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3031,"res":true,"pld":{"list":[{"msg对象"}]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetReplyListByUid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据uid来获取回复信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3032,prm:{"uid":"uid"}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3032,"res":true,"pld":{"list":[{"msg对象"}]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshByLastMid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateMidMark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新mid的标记状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3033,prm:{"uid":"uid","mid":"mid"}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3033,"res":true,"pld":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论某消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3034,prm:{"uid":"uid","mid":"mid","con":"con"}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3034,"res":true,"pld":{}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1424,6 +1488,74 @@
       </c>
       <c r="E31" s="2" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>3031</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
+        <v>3032</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>3033</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
+        <v>3034</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/WeiboQuery_3/config/actions.xlsx
+++ b/WeiboQuery_3/config/actions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>ActionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,6 +580,22 @@
   </si>
   <si>
     <t>{"code":3034,"res":true,"pld":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FansGroupAutoExecute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝分组生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3035,prm:{"gid":"gid"}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3035,"res":true,"pld":{}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1556,6 +1572,23 @@
       </c>
       <c r="E35" s="2" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
+        <v>3035</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
